--- a/Team_Results.xlsx
+++ b/Team_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/Hattrick_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6D0059-EE23-3C4D-AD62-1B23CEF6F8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D635D83-9CF4-7A44-A38F-41A236D81726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="520" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19760" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>POS</t>
   </si>
@@ -124,30 +124,30 @@
     <t>W</t>
   </si>
   <si>
+    <t>WBM</t>
+  </si>
+  <si>
+    <t>WBD</t>
+  </si>
+  <si>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>CLRD</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>WBO</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
     <t>WM</t>
   </si>
   <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>WBM</t>
-  </si>
-  <si>
-    <t>WBD</t>
-  </si>
-  <si>
-    <t>CDW</t>
-  </si>
-  <si>
-    <t>CLRD</t>
-  </si>
-  <si>
-    <t>WB</t>
-  </si>
-  <si>
-    <t>WBO</t>
-  </si>
-  <si>
     <t>ICMD</t>
   </si>
   <si>
@@ -163,19 +163,22 @@
     <t>Last POS</t>
   </si>
   <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>IM</t>
   </si>
   <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
     <t>LW</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>RW</t>
+    <t>LB</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,12 +209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -254,13 +251,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,39 +557,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -650,26 +638,29 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2">
         <v>10.65</v>
       </c>
       <c r="D2">
-        <v>10.220000000000001</v>
+        <v>10.91</v>
       </c>
       <c r="E2">
-        <v>10.09</v>
+        <v>10.78</v>
       </c>
       <c r="F2">
-        <v>10.91</v>
+        <v>11.6</v>
       </c>
       <c r="H2">
-        <v>11.36</v>
+        <v>12.05</v>
       </c>
       <c r="I2">
-        <v>10.07</v>
+        <v>10.76</v>
       </c>
       <c r="Q2">
         <v>11.92</v>
@@ -682,26 +673,29 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3">
         <v>10.54</v>
       </c>
       <c r="D3">
-        <v>10.73</v>
+        <v>11.04</v>
       </c>
       <c r="E3">
-        <v>10.23</v>
+        <v>10.54</v>
       </c>
       <c r="F3">
-        <v>11.04</v>
+        <v>11.35</v>
       </c>
       <c r="H3">
-        <v>10.02</v>
+        <v>10.33</v>
       </c>
       <c r="I3">
-        <v>12.73</v>
+        <v>13.04</v>
       </c>
       <c r="J3">
         <v>11.57</v>
@@ -738,23 +732,29 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>9.49</v>
       </c>
       <c r="D4">
-        <v>9.6</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8.9600000000000009</v>
+        <v>10.77</v>
+      </c>
+      <c r="E4">
+        <v>10.130000000000001</v>
       </c>
       <c r="F4">
-        <v>10.77</v>
+        <v>11.94</v>
       </c>
       <c r="H4">
-        <v>14.68</v>
+        <v>15.85</v>
+      </c>
+      <c r="I4">
+        <v>9.5</v>
       </c>
       <c r="M4">
         <v>11.38</v>
@@ -770,22 +770,30 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5">
         <v>9.4239999999999995</v>
       </c>
+      <c r="D5">
+        <v>9.7840000000000007</v>
+      </c>
       <c r="E5">
-        <v>8.3829999999999991</v>
+        <v>9.6039999999999992</v>
       </c>
       <c r="F5">
-        <v>9.7840000000000007</v>
+        <v>11.005000000000001</v>
       </c>
       <c r="H5">
-        <v>12.827</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>14.048</v>
+      </c>
+      <c r="I5">
+        <v>9.6840000000000011</v>
+      </c>
       <c r="Q5">
         <v>12.055999999999999</v>
       </c>
@@ -794,29 +802,32 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6">
         <v>9.19</v>
       </c>
       <c r="D6">
-        <v>10.15</v>
+        <v>10.37</v>
       </c>
       <c r="E6">
-        <v>8.9700000000000006</v>
+        <v>9.19</v>
       </c>
       <c r="F6">
-        <v>10.37</v>
+        <v>10.59</v>
       </c>
       <c r="G6">
         <v>11.15</v>
       </c>
       <c r="H6">
-        <v>9.2600000000000016</v>
+        <v>9.48</v>
       </c>
       <c r="I6">
-        <v>12.56</v>
+        <v>12.78</v>
       </c>
       <c r="J6">
         <v>11.75</v>
@@ -862,26 +873,29 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7">
         <v>9.18</v>
       </c>
       <c r="D7">
-        <v>9.27</v>
+        <v>9.5799999999999983</v>
       </c>
       <c r="E7">
-        <v>8.8699999999999992</v>
+        <v>9.18</v>
       </c>
       <c r="F7">
-        <v>9.5799999999999983</v>
+        <v>9.8899999999999988</v>
       </c>
       <c r="H7">
-        <v>8.9699999999999989</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="I7">
-        <v>11.45</v>
+        <v>11.76</v>
       </c>
       <c r="J7">
         <v>10.47</v>
@@ -909,7 +923,10 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8">
@@ -980,20 +997,26 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9">
         <v>8.08</v>
       </c>
+      <c r="D9">
+        <v>9.06</v>
+      </c>
       <c r="E9">
-        <v>7.8599999999999994</v>
+        <v>8.08</v>
       </c>
       <c r="F9">
-        <v>9.06</v>
+        <v>9.2800000000000011</v>
       </c>
       <c r="I9">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="J9">
         <v>10.7</v>
@@ -1027,26 +1050,29 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10">
         <v>7.31</v>
       </c>
       <c r="D10">
-        <v>8.8800000000000008</v>
+        <v>9.01</v>
       </c>
       <c r="E10">
-        <v>7.18</v>
+        <v>7.31</v>
       </c>
       <c r="F10">
-        <v>9.01</v>
+        <v>9.14</v>
       </c>
       <c r="G10">
         <v>11.42</v>
       </c>
       <c r="I10">
-        <v>11.41</v>
+        <v>11.54</v>
       </c>
       <c r="J10">
         <v>10.96</v>
@@ -1098,7 +1124,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11">
@@ -1116,9 +1145,6 @@
       <c r="H11">
         <v>10.01</v>
       </c>
-      <c r="I11">
-        <v>8.84</v>
-      </c>
       <c r="J11">
         <v>11.91</v>
       </c>
@@ -1148,249 +1174,267 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="D12">
-        <v>8.9400000000000013</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
+        <v>12.12</v>
+      </c>
+      <c r="K12">
+        <v>10.4</v>
+      </c>
+      <c r="L12">
+        <v>3.49</v>
+      </c>
+      <c r="N12">
+        <v>10.88</v>
+      </c>
+      <c r="P12">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="R12">
+        <v>12.9</v>
+      </c>
+      <c r="S12">
+        <v>10.59</v>
+      </c>
+      <c r="T12">
+        <v>7.84</v>
+      </c>
+      <c r="U12">
+        <v>10.87</v>
+      </c>
+      <c r="V12">
+        <v>10.67</v>
+      </c>
+      <c r="W12">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>11.76</v>
+      </c>
+      <c r="L13">
+        <v>3.41</v>
+      </c>
+      <c r="R13">
+        <v>12.66</v>
+      </c>
+      <c r="T13">
+        <v>7.7</v>
+      </c>
+      <c r="U13">
+        <v>10.43</v>
+      </c>
+      <c r="V13">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>11.74</v>
+      </c>
+      <c r="L14">
+        <v>3.37</v>
+      </c>
+      <c r="N14">
+        <v>10.45</v>
+      </c>
+      <c r="R14">
+        <v>12.26</v>
+      </c>
+      <c r="T14">
+        <v>7.81</v>
+      </c>
+      <c r="U14">
+        <v>10.41</v>
+      </c>
+      <c r="V14">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>11.64</v>
+      </c>
+      <c r="L15">
+        <v>3.29</v>
+      </c>
+      <c r="N15">
+        <v>10.87</v>
+      </c>
+      <c r="R15">
+        <v>11.64</v>
+      </c>
+      <c r="T15">
+        <v>7.85</v>
+      </c>
+      <c r="U15">
+        <v>10.37</v>
+      </c>
+      <c r="V15">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>11.47</v>
+      </c>
+      <c r="L16">
+        <v>3.34</v>
+      </c>
+      <c r="R16">
+        <v>12.65</v>
+      </c>
+      <c r="S16">
+        <v>10.79</v>
+      </c>
+      <c r="T16">
+        <v>7.24</v>
+      </c>
+      <c r="U16">
+        <v>10.32</v>
+      </c>
+      <c r="V16">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>10.5</v>
+      </c>
+      <c r="L17">
+        <v>3.07</v>
+      </c>
+      <c r="R17">
+        <v>11.88</v>
+      </c>
+      <c r="T17">
+        <v>6.34</v>
+      </c>
+      <c r="U17">
+        <v>9.61</v>
+      </c>
+      <c r="V17">
+        <v>9.4099999999999984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>10.33</v>
+      </c>
+      <c r="H18">
+        <v>8.92</v>
+      </c>
+      <c r="J18">
+        <v>10.68</v>
+      </c>
+      <c r="K18">
+        <v>10.59</v>
+      </c>
+      <c r="M18">
+        <v>11.33</v>
+      </c>
+      <c r="R18">
+        <v>11.45</v>
+      </c>
+      <c r="S18">
+        <v>10.98</v>
+      </c>
+      <c r="T18">
+        <v>5.8099999999999987</v>
+      </c>
+      <c r="V18">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="W18">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19">
         <v>9.26</v>
       </c>
-      <c r="I12">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J12">
+      <c r="J19">
         <v>11.45</v>
       </c>
-      <c r="K12">
+      <c r="K19">
         <v>10.94</v>
       </c>
-      <c r="M12">
+      <c r="M19">
         <v>11.95</v>
       </c>
-      <c r="O12">
+      <c r="O19">
         <v>9.4700000000000006</v>
       </c>
-      <c r="P12">
+      <c r="P19">
         <v>9.77</v>
       </c>
-      <c r="S12">
+      <c r="S19">
         <v>11.13</v>
       </c>
-      <c r="W12">
+      <c r="W19">
         <v>11.79</v>
       </c>
-      <c r="Y12">
+      <c r="Y19">
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>8.92</v>
-      </c>
-      <c r="G13">
-        <v>10.33</v>
-      </c>
-      <c r="H13">
-        <v>8.92</v>
-      </c>
-      <c r="J13">
-        <v>10.68</v>
-      </c>
-      <c r="K13">
-        <v>10.59</v>
-      </c>
-      <c r="M13">
-        <v>11.33</v>
-      </c>
-      <c r="R13">
-        <v>11.45</v>
-      </c>
-      <c r="S13">
-        <v>10.98</v>
-      </c>
-      <c r="T13">
-        <v>5.8099999999999987</v>
-      </c>
-      <c r="V13">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="W13">
-        <v>11.71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14">
-        <v>12.12</v>
-      </c>
-      <c r="K14">
-        <v>10.4</v>
-      </c>
-      <c r="L14">
-        <v>3.49</v>
-      </c>
-      <c r="N14">
-        <v>10.88</v>
-      </c>
-      <c r="P14">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="R14">
-        <v>12.9</v>
-      </c>
-      <c r="S14">
-        <v>10.59</v>
-      </c>
-      <c r="T14">
-        <v>7.84</v>
-      </c>
-      <c r="U14">
-        <v>10.87</v>
-      </c>
-      <c r="V14">
-        <v>10.67</v>
-      </c>
-      <c r="W14">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <v>11.76</v>
-      </c>
-      <c r="L15">
-        <v>3.41</v>
-      </c>
-      <c r="R15">
-        <v>12.66</v>
-      </c>
-      <c r="T15">
-        <v>7.7</v>
-      </c>
-      <c r="U15">
-        <v>10.43</v>
-      </c>
-      <c r="V15">
-        <v>10.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16">
-        <v>11.74</v>
-      </c>
-      <c r="L16">
-        <v>3.37</v>
-      </c>
-      <c r="N16">
-        <v>10.45</v>
-      </c>
-      <c r="R16">
-        <v>12.26</v>
-      </c>
-      <c r="T16">
-        <v>7.81</v>
-      </c>
-      <c r="U16">
-        <v>10.41</v>
-      </c>
-      <c r="V16">
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17">
-        <v>11.64</v>
-      </c>
-      <c r="L17">
-        <v>3.29</v>
-      </c>
-      <c r="N17">
-        <v>10.87</v>
-      </c>
-      <c r="R17">
-        <v>11.64</v>
-      </c>
-      <c r="T17">
-        <v>7.85</v>
-      </c>
-      <c r="U17">
-        <v>10.37</v>
-      </c>
-      <c r="V17">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18">
-        <v>11.47</v>
-      </c>
-      <c r="L18">
-        <v>3.34</v>
-      </c>
-      <c r="R18">
-        <v>12.65</v>
-      </c>
-      <c r="S18">
-        <v>10.79</v>
-      </c>
-      <c r="T18">
-        <v>7.24</v>
-      </c>
-      <c r="U18">
-        <v>10.32</v>
-      </c>
-      <c r="V18">
-        <v>10.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19">
-        <v>10.5</v>
-      </c>
-      <c r="L19">
-        <v>3.07</v>
-      </c>
-      <c r="R19">
-        <v>11.88</v>
-      </c>
-      <c r="T19">
-        <v>6.34</v>
-      </c>
-      <c r="U19">
-        <v>9.61</v>
-      </c>
-      <c r="V19">
-        <v>9.4099999999999984</v>
-      </c>
-    </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>10.47</v>
+        <v>10.6</v>
       </c>
       <c r="J20">
         <v>10.09</v>
@@ -1421,7 +1465,10 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="L21">
@@ -1435,7 +1482,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="O22">
@@ -1443,7 +1493,10 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="T23">
@@ -1454,35 +1507,47 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
-        <v>47</v>
+      <c r="I24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L24" t="s">
         <v>43</v>
       </c>
       <c r="M24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" t="s">
         <v>48</v>
       </c>
-      <c r="N24" t="s">
-        <v>49</v>
-      </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>48</v>
       </c>
       <c r="R24" t="s">
         <v>50</v>
@@ -1490,14 +1555,17 @@
       <c r="S24" t="s">
         <v>51</v>
       </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
       <c r="U24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Team_Results.xlsx
+++ b/Team_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/Hattrick_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbrockmann\Documents\GitHub\Hattrick_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D635D83-9CF4-7A44-A38F-41A236D81726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9BE8E3-B216-4C2B-A738-BA49E1993ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>POS</t>
   </si>
@@ -169,13 +169,10 @@
     <t>IM</t>
   </si>
   <si>
+    <t>LW</t>
+  </si>
+  <si>
     <t>RW</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>LW</t>
   </si>
   <si>
     <t>LB</t>
@@ -185,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +195,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -208,7 +211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,8 +254,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,13 +560,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -637,7 +640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -668,11 +671,8 @@
       <c r="X2">
         <v>9.7900000000000009</v>
       </c>
-      <c r="Y2">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -728,10 +728,10 @@
         <v>9.9699999999999989</v>
       </c>
       <c r="Y3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -769,7 +769,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,7 +801,7 @@
         <v>11.807</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -869,10 +869,10 @@
         <v>9.49</v>
       </c>
       <c r="Y6">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -919,10 +919,10 @@
         <v>9.33</v>
       </c>
       <c r="Y7">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -993,10 +993,10 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="Y8">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,10 +1046,10 @@
         <v>8.9</v>
       </c>
       <c r="Y9">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1119,11 +1119,8 @@
       <c r="X10">
         <v>8.32</v>
       </c>
-      <c r="Y10">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,10 +1167,10 @@
         <v>12.15</v>
       </c>
       <c r="Y11">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1240,7 +1237,7 @@
         <v>10.33</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1327,7 +1324,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>9.4099999999999984</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1390,8 +1387,11 @@
       <c r="W18">
         <v>11.71</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y18">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1423,10 +1423,10 @@
         <v>11.79</v>
       </c>
       <c r="Y19">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1491,8 +1491,11 @@
       <c r="O22">
         <v>8.7100000000000009</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y22">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1503,14 +1506,14 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -1525,22 +1528,25 @@
       <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
         <v>43</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" t="s">
         <v>48</v>
       </c>
       <c r="P24" t="s">
@@ -1550,16 +1556,16 @@
         <v>48</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T24" t="s">
         <v>43</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V24" t="s">
         <v>47</v>
@@ -1567,8 +1573,12 @@
       <c r="W24" t="s">
         <v>47</v>
       </c>
+      <c r="X24" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="138" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>